--- a/TuVung/Lesson18/tuvung.xlsx
+++ b/TuVung/Lesson18/tuvung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\TuVung\Lesson18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D547A730-CB2C-48B0-9588-C65B5D6A757D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A251B2-2C82-4102-9939-D8AF25EC3890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
